--- a/Code/Results/Cases/Case_0_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_184/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.413900582659977</v>
+        <v>6.545057605471523</v>
       </c>
       <c r="D2">
-        <v>2.571595682501587</v>
+        <v>4.661537461599443</v>
       </c>
       <c r="E2">
-        <v>7.40059462371595</v>
+        <v>12.26468098392145</v>
       </c>
       <c r="F2">
-        <v>40.69422640701127</v>
+        <v>56.38140612707684</v>
       </c>
       <c r="G2">
-        <v>2.132959917355559</v>
+        <v>3.797787779480617</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.12455050391535</v>
+        <v>43.04087415747635</v>
       </c>
       <c r="J2">
-        <v>6.398344586046867</v>
+        <v>11.22231888176117</v>
       </c>
       <c r="K2">
-        <v>25.36705377341856</v>
+        <v>27.64467548261242</v>
       </c>
       <c r="L2">
-        <v>5.961311175713567</v>
+        <v>10.56920454279153</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.64674568208503</v>
+        <v>21.32664787442998</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.235215324985003</v>
+        <v>6.5267545040153</v>
       </c>
       <c r="D3">
-        <v>2.482496174758531</v>
+        <v>4.651014653266074</v>
       </c>
       <c r="E3">
-        <v>7.282665878221414</v>
+        <v>12.27464296581825</v>
       </c>
       <c r="F3">
-        <v>39.72583990436051</v>
+        <v>56.41359703053492</v>
       </c>
       <c r="G3">
-        <v>2.144622543664712</v>
+        <v>3.801942545423381</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.51821517269283</v>
+        <v>43.08750460884202</v>
       </c>
       <c r="J3">
-        <v>6.40918721660067</v>
+        <v>11.24756180758913</v>
       </c>
       <c r="K3">
-        <v>23.95781470276649</v>
+        <v>27.40371910342969</v>
       </c>
       <c r="L3">
-        <v>5.96405087147755</v>
+        <v>10.59012472440471</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.95889075525673</v>
+        <v>21.40816327839199</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.123381514201683</v>
+        <v>6.516341489421612</v>
       </c>
       <c r="D4">
-        <v>2.426690494891045</v>
+        <v>4.644726800730176</v>
       </c>
       <c r="E4">
-        <v>7.213141821502416</v>
+        <v>12.28243321283558</v>
       </c>
       <c r="F4">
-        <v>39.16532958145167</v>
+        <v>56.44721778523787</v>
       </c>
       <c r="G4">
-        <v>2.151940895170375</v>
+        <v>3.804625043249062</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.17250452837013</v>
+        <v>43.12618634493339</v>
       </c>
       <c r="J4">
-        <v>6.41895152010077</v>
+        <v>11.26439841427812</v>
       </c>
       <c r="K4">
-        <v>23.06922814528651</v>
+        <v>27.26136178966464</v>
       </c>
       <c r="L4">
-        <v>5.968232965341254</v>
+        <v>10.60411964272775</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.15262873415847</v>
+        <v>21.46032328296774</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.077329911818685</v>
+        <v>6.512308328545109</v>
       </c>
       <c r="D5">
-        <v>2.403689993616954</v>
+        <v>4.642209016122701</v>
       </c>
       <c r="E5">
-        <v>7.185539325246849</v>
+        <v>12.28602904537922</v>
       </c>
       <c r="F5">
-        <v>38.9453388328794</v>
+        <v>56.4643918581226</v>
       </c>
       <c r="G5">
-        <v>2.154965734801881</v>
+        <v>3.805751367955448</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.03813253009208</v>
+        <v>43.14446828694417</v>
       </c>
       <c r="J5">
-        <v>6.423685727782821</v>
+        <v>11.27159599162501</v>
       </c>
       <c r="K5">
-        <v>22.70156609241202</v>
+        <v>27.20481044794085</v>
       </c>
       <c r="L5">
-        <v>5.970549250329097</v>
+        <v>10.61011217301629</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.23218314133204</v>
+        <v>21.48211147090877</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.069655941505134</v>
+        <v>6.511651399212753</v>
       </c>
       <c r="D6">
-        <v>2.399855682449046</v>
+        <v>4.641793660959926</v>
       </c>
       <c r="E6">
-        <v>7.181000099811602</v>
+        <v>12.28665158346781</v>
       </c>
       <c r="F6">
-        <v>38.90931368559433</v>
+        <v>56.46745303552255</v>
       </c>
       <c r="G6">
-        <v>2.15547065924149</v>
+        <v>3.805940401418025</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.01620793366479</v>
+        <v>43.14765585519477</v>
       </c>
       <c r="J6">
-        <v>6.424516717055733</v>
+        <v>11.27281147600191</v>
       </c>
       <c r="K6">
-        <v>22.64019117682698</v>
+        <v>27.19550988417102</v>
       </c>
       <c r="L6">
-        <v>5.970970365461717</v>
+        <v>10.61112472268948</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.24543187239545</v>
+        <v>21.48576161233748</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.122762304970222</v>
+        <v>6.516286242090123</v>
       </c>
       <c r="D7">
-        <v>2.426381326822947</v>
+        <v>4.644692663207821</v>
       </c>
       <c r="E7">
-        <v>7.212766607344479</v>
+        <v>12.28248000139093</v>
       </c>
       <c r="F7">
-        <v>39.1623288116435</v>
+        <v>56.44743535304995</v>
       </c>
       <c r="G7">
-        <v>2.151981513180963</v>
+        <v>3.804640098723071</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.17066622805263</v>
+        <v>43.12642271505108</v>
       </c>
       <c r="J7">
-        <v>6.419012342922207</v>
+        <v>11.26449412045022</v>
       </c>
       <c r="K7">
-        <v>23.06429175366171</v>
+        <v>27.26059313548969</v>
       </c>
       <c r="L7">
-        <v>5.968261746678629</v>
+        <v>10.60419928750616</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.15369908139044</v>
+        <v>21.46061496694973</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.352760295740969</v>
+        <v>6.538577117988623</v>
       </c>
       <c r="D8">
-        <v>2.541111154615377</v>
+        <v>4.657873862835729</v>
       </c>
       <c r="E8">
-        <v>7.359336177888953</v>
+        <v>12.26776879819972</v>
       </c>
       <c r="F8">
-        <v>40.35316437929841</v>
+        <v>56.38962389654733</v>
       </c>
       <c r="G8">
-        <v>2.13695037091982</v>
+        <v>3.799193137592886</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.90986430511256</v>
+        <v>43.05486154797011</v>
       </c>
       <c r="J8">
-        <v>6.40142209376669</v>
+        <v>11.23074521801831</v>
       </c>
       <c r="K8">
-        <v>24.88614174369082</v>
+        <v>27.56046690842269</v>
       </c>
       <c r="L8">
-        <v>5.961726708050514</v>
+        <v>10.57617938242119</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.75399297014103</v>
+        <v>21.35431793965384</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.784986291467175</v>
+        <v>6.588710760320669</v>
       </c>
       <c r="D9">
-        <v>2.756834286272551</v>
+        <v>4.685051976545656</v>
       </c>
       <c r="E9">
-        <v>7.669542853039182</v>
+        <v>12.25217924736337</v>
       </c>
       <c r="F9">
-        <v>42.96573380545355</v>
+        <v>56.38660427187746</v>
       </c>
       <c r="G9">
-        <v>2.108575928632737</v>
+        <v>3.789548780642032</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.57825440132326</v>
+        <v>42.99461835962765</v>
       </c>
       <c r="J9">
-        <v>6.392843676499189</v>
+        <v>11.17516472946253</v>
       </c>
       <c r="K9">
-        <v>28.26492066555217</v>
+        <v>28.19035608272177</v>
       </c>
       <c r="L9">
-        <v>5.969545630725938</v>
+        <v>10.53034057260008</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.98259572181991</v>
+        <v>21.1625040146238</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.089052404252586</v>
+        <v>6.629281381168896</v>
       </c>
       <c r="D10">
-        <v>2.909249354634885</v>
+        <v>4.70577122035801</v>
       </c>
       <c r="E10">
-        <v>7.911375269528468</v>
+        <v>12.2487798112409</v>
       </c>
       <c r="F10">
-        <v>45.06539138398367</v>
+        <v>56.45212135739484</v>
       </c>
       <c r="G10">
-        <v>2.088169955518958</v>
+        <v>3.783087043169787</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.94908470236666</v>
+        <v>42.99959664411205</v>
       </c>
       <c r="J10">
-        <v>6.404251709729709</v>
+        <v>11.1407788182739</v>
       </c>
       <c r="K10">
-        <v>30.62320802569161</v>
+        <v>28.67510892826655</v>
       </c>
       <c r="L10">
-        <v>5.989070595666122</v>
+        <v>10.50219480073777</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.41706900281422</v>
+        <v>21.03157426326242</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.22419455037052</v>
+        <v>6.648508899056186</v>
       </c>
       <c r="D11">
-        <v>2.977267681894955</v>
+        <v>4.715347262762391</v>
       </c>
       <c r="E11">
-        <v>8.024490078133121</v>
+        <v>12.24897457961468</v>
       </c>
       <c r="F11">
-        <v>46.06290099427265</v>
+        <v>56.4966968962224</v>
       </c>
       <c r="G11">
-        <v>2.078922884287072</v>
+        <v>3.780281149543867</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.60716900498495</v>
+        <v>43.01262125891291</v>
       </c>
       <c r="J11">
-        <v>6.413761071739682</v>
+        <v>11.12653332010594</v>
       </c>
       <c r="K11">
-        <v>31.66947680542649</v>
+        <v>28.89962129392635</v>
       </c>
       <c r="L11">
-        <v>6.001241424556841</v>
+        <v>10.49058742920866</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.15842982750034</v>
+        <v>20.97415027230877</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.274901932289999</v>
+        <v>6.655897163141986</v>
       </c>
       <c r="D12">
-        <v>3.002841574120054</v>
+        <v>4.718994002534502</v>
       </c>
       <c r="E12">
-        <v>8.067782307515698</v>
+        <v>12.24929789852083</v>
       </c>
       <c r="F12">
-        <v>46.44706839448668</v>
+        <v>56.51570226169178</v>
       </c>
       <c r="G12">
-        <v>2.0754206479036</v>
+        <v>3.779237703264413</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.86162106696883</v>
+        <v>43.01910423468225</v>
       </c>
       <c r="J12">
-        <v>6.418027616014017</v>
+        <v>11.12133957041184</v>
       </c>
       <c r="K12">
-        <v>32.06681995539471</v>
+        <v>28.98514542779465</v>
       </c>
       <c r="L12">
-        <v>6.006350777685141</v>
+        <v>10.48636369522084</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.06013552743592</v>
+        <v>20.95271018531318</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.26400208781272</v>
+        <v>6.654301260705835</v>
       </c>
       <c r="D13">
-        <v>2.997341770876511</v>
+        <v>4.718207719009524</v>
       </c>
       <c r="E13">
-        <v>8.058437920495937</v>
+        <v>12.24921718047813</v>
       </c>
       <c r="F13">
-        <v>46.3640386432141</v>
+        <v>56.51151457830193</v>
       </c>
       <c r="G13">
-        <v>2.076175041921827</v>
+        <v>3.779461581266573</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.8065815469592</v>
+        <v>43.01763899113843</v>
       </c>
       <c r="J13">
-        <v>6.417078378941302</v>
+        <v>11.1224492130343</v>
       </c>
       <c r="K13">
-        <v>31.97761387326019</v>
+        <v>28.96670485677181</v>
       </c>
       <c r="L13">
-        <v>6.005227653524082</v>
+        <v>10.48726571912368</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.08132336373266</v>
+        <v>20.95731415437044</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.228375688940677</v>
+        <v>6.649114609071037</v>
       </c>
       <c r="D14">
-        <v>2.979375278415225</v>
+        <v>4.71564687817014</v>
       </c>
       <c r="E14">
-        <v>8.028042484545463</v>
+        <v>12.24899618259327</v>
       </c>
       <c r="F14">
-        <v>46.09437550872624</v>
+        <v>56.49821787803668</v>
       </c>
       <c r="G14">
-        <v>2.078634800132328</v>
+        <v>3.780194922815002</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.62799585216662</v>
+        <v>43.01312351974551</v>
       </c>
       <c r="J14">
-        <v>6.414098472428166</v>
+        <v>11.12610200549948</v>
       </c>
       <c r="K14">
-        <v>31.70184177246601</v>
+        <v>28.90664766479684</v>
       </c>
       <c r="L14">
-        <v>6.001651573810864</v>
+        <v>10.49023650014611</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.15035113704322</v>
+        <v>20.97238028022518</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.2064923638893</v>
+        <v>6.645951484921911</v>
       </c>
       <c r="D15">
-        <v>2.968346700729345</v>
+        <v>4.714080923796233</v>
       </c>
       <c r="E15">
-        <v>8.009484518909915</v>
+        <v>12.24889328996853</v>
       </c>
       <c r="F15">
-        <v>45.93004827718419</v>
+        <v>56.49035008754743</v>
       </c>
       <c r="G15">
-        <v>2.080141215963986</v>
+        <v>3.780646597400739</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.51930020354257</v>
+        <v>43.01055971444286</v>
       </c>
       <c r="J15">
-        <v>6.412361269227709</v>
+        <v>11.12836558043701</v>
       </c>
       <c r="K15">
-        <v>31.53244796202411</v>
+        <v>28.86992478132112</v>
       </c>
       <c r="L15">
-        <v>5.999527176003712</v>
+        <v>10.49207854418213</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.1925816883473</v>
+        <v>20.98164839196829</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.080155453878891</v>
+        <v>6.628040028874557</v>
       </c>
       <c r="D16">
-        <v>2.904778112960451</v>
+        <v>4.70514833662234</v>
       </c>
       <c r="E16">
-        <v>7.904046275439608</v>
+        <v>12.24880205199074</v>
       </c>
       <c r="F16">
-        <v>45.00108145213108</v>
+        <v>56.44950565035153</v>
       </c>
       <c r="G16">
-        <v>2.08877452152892</v>
+        <v>3.78327309231216</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.90679494994256</v>
+        <v>42.99896230352518</v>
       </c>
       <c r="J16">
-        <v>6.403720860179354</v>
+        <v>11.1417378898964</v>
       </c>
       <c r="K16">
-        <v>30.55430703414103</v>
+        <v>28.66051108582832</v>
       </c>
       <c r="L16">
-        <v>5.98834367401579</v>
+        <v>10.50297741655641</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.43393114283805</v>
+        <v>21.03536986974604</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.001827206454447</v>
+        <v>6.617246959747231</v>
       </c>
       <c r="D17">
-        <v>2.865446432942032</v>
+        <v>4.699706261477708</v>
       </c>
       <c r="E17">
-        <v>7.84016480303194</v>
+        <v>12.24919148675711</v>
       </c>
       <c r="F17">
-        <v>44.44225749810132</v>
+        <v>56.42823390084467</v>
       </c>
       <c r="G17">
-        <v>2.09407609667542</v>
+        <v>3.784918487109465</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.54006635758618</v>
+        <v>42.99460644736818</v>
       </c>
       <c r="J17">
-        <v>6.399556745183823</v>
+        <v>11.15029902174716</v>
       </c>
       <c r="K17">
-        <v>29.94751956919757</v>
+        <v>28.53301748587471</v>
       </c>
       <c r="L17">
-        <v>5.982344018894596</v>
+        <v>10.50996970644736</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.58153401446575</v>
+        <v>21.06887199109862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.95647576328265</v>
+        <v>6.611111944421884</v>
       </c>
       <c r="D18">
-        <v>2.842699340485556</v>
+        <v>4.696590384817748</v>
       </c>
       <c r="E18">
-        <v>7.803713000139553</v>
+        <v>12.24957942254662</v>
       </c>
       <c r="F18">
-        <v>44.1247995805978</v>
+        <v>56.41738935330321</v>
       </c>
       <c r="G18">
-        <v>2.097129167054925</v>
+        <v>3.785877455569716</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.33235971920951</v>
+        <v>42.99311371114995</v>
       </c>
       <c r="J18">
-        <v>6.397565336022049</v>
+        <v>11.15535464314879</v>
       </c>
       <c r="K18">
-        <v>29.59600227204541</v>
+        <v>28.46006678894306</v>
       </c>
       <c r="L18">
-        <v>5.979200921354042</v>
+        <v>10.51410410425916</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.66631193620992</v>
+        <v>21.08834275901077</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.941069641397307</v>
+        <v>6.609047361952558</v>
       </c>
       <c r="D19">
-        <v>2.834976075045494</v>
+        <v>4.695537887556177</v>
       </c>
       <c r="E19">
-        <v>7.791420789044998</v>
+        <v>12.24973895181621</v>
       </c>
       <c r="F19">
-        <v>44.01798537660326</v>
+        <v>56.41395630172462</v>
       </c>
       <c r="G19">
-        <v>2.098163688954973</v>
+        <v>3.786204310386546</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.26257986748799</v>
+        <v>42.99278209046239</v>
       </c>
       <c r="J19">
-        <v>6.396959136261016</v>
+        <v>11.1570889769094</v>
       </c>
       <c r="K19">
-        <v>29.47655103880401</v>
+        <v>28.43543432124271</v>
       </c>
       <c r="L19">
-        <v>5.978188785130728</v>
+        <v>10.51552329154645</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.69500019234069</v>
+        <v>21.09496985285705</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.010196444169132</v>
+        <v>6.618388385154654</v>
       </c>
       <c r="D20">
-        <v>2.869646220785314</v>
+        <v>4.700284112197688</v>
       </c>
       <c r="E20">
-        <v>7.846934898569657</v>
+        <v>12.24913306890962</v>
       </c>
       <c r="F20">
-        <v>44.50133292581475</v>
+        <v>56.43035439702592</v>
       </c>
       <c r="G20">
-        <v>2.093511386300955</v>
+        <v>3.784742030852306</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.57876943261017</v>
+        <v>42.99496530222659</v>
       </c>
       <c r="J20">
-        <v>6.399957936831552</v>
+        <v>11.14937406756643</v>
       </c>
       <c r="K20">
-        <v>30.01237216059194</v>
+        <v>28.54655053705429</v>
       </c>
       <c r="L20">
-        <v>5.98295065155637</v>
+        <v>10.50921371191489</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.5658348488307</v>
+        <v>21.06528482145444</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.238852772135642</v>
+        <v>6.650635174980736</v>
       </c>
       <c r="D21">
-        <v>2.984657368771723</v>
+        <v>4.716398512276389</v>
       </c>
       <c r="E21">
-        <v>8.036957802408322</v>
+        <v>12.24905432885424</v>
       </c>
       <c r="F21">
-        <v>46.17340439746489</v>
+        <v>56.50206575183181</v>
       </c>
       <c r="G21">
-        <v>2.077912374414544</v>
+        <v>3.779979005660417</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.68030572856269</v>
+        <v>43.0144077110436</v>
       </c>
       <c r="J21">
-        <v>6.414955302062343</v>
+        <v>11.12502364575583</v>
       </c>
       <c r="K21">
-        <v>31.78294147049193</v>
+        <v>28.92427472780086</v>
       </c>
       <c r="L21">
-        <v>6.002688135781266</v>
+        <v>10.48935925154428</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.1300869313346</v>
+        <v>20.96794672945042</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.385565985825015</v>
+        <v>6.672333453181321</v>
       </c>
       <c r="D22">
-        <v>3.058762923769059</v>
+        <v>4.727049141221304</v>
       </c>
       <c r="E22">
-        <v>8.163829312174716</v>
+        <v>12.25045708072568</v>
       </c>
       <c r="F22">
-        <v>47.30391614436639</v>
+        <v>56.56132203770859</v>
       </c>
       <c r="G22">
-        <v>2.067710945369976</v>
+        <v>3.776977276390304</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.43100135663215</v>
+        <v>43.03615476758986</v>
       </c>
       <c r="J22">
-        <v>6.428660627503086</v>
+        <v>11.11027906713302</v>
       </c>
       <c r="K22">
-        <v>33.01736351088478</v>
+        <v>29.17405775195246</v>
       </c>
       <c r="L22">
-        <v>6.018520302591544</v>
+        <v>10.47738402325813</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.84315409754273</v>
+        <v>20.90610822575601</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.307513269364313</v>
+        <v>6.660696928044923</v>
       </c>
       <c r="D23">
-        <v>3.019305025073159</v>
+        <v>4.721354209619622</v>
       </c>
       <c r="E23">
-        <v>8.095864698964665</v>
+        <v>12.24957563680823</v>
       </c>
       <c r="F23">
-        <v>46.69695354098594</v>
+        <v>56.52856229711912</v>
       </c>
       <c r="G23">
-        <v>2.073158339628561</v>
+        <v>3.778569223523826</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.02741349062764</v>
+        <v>43.02371987822331</v>
       </c>
       <c r="J23">
-        <v>6.420972657864913</v>
+        <v>11.11804153625184</v>
       </c>
       <c r="K23">
-        <v>32.34733955470281</v>
+        <v>29.04049950481738</v>
       </c>
       <c r="L23">
-        <v>6.009792094698317</v>
+        <v>10.48368395273157</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.99654867736836</v>
+        <v>20.93895064780285</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.006413706001337</v>
+        <v>6.617872128211727</v>
       </c>
       <c r="D24">
-        <v>2.867747916910018</v>
+        <v>4.700022825789522</v>
       </c>
       <c r="E24">
-        <v>7.843873284141879</v>
+        <v>12.24915896859553</v>
       </c>
       <c r="F24">
-        <v>44.4746130590457</v>
+        <v>56.42939140729165</v>
       </c>
       <c r="G24">
-        <v>2.093766675480125</v>
+        <v>3.784821766196068</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.56126204274197</v>
+        <v>42.99479991362097</v>
       </c>
       <c r="J24">
-        <v>6.399775307384961</v>
+        <v>11.14979182285491</v>
       </c>
       <c r="K24">
-        <v>29.98306061993067</v>
+        <v>28.54043115838077</v>
       </c>
       <c r="L24">
-        <v>5.982675441282352</v>
+        <v>10.50955514057408</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.57293268227478</v>
+        <v>21.06690592673712</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.670311804438842</v>
+        <v>6.574478533751543</v>
       </c>
       <c r="D25">
-        <v>2.699527217280712</v>
+        <v>4.677563256917405</v>
       </c>
       <c r="E25">
-        <v>7.58319023976514</v>
+        <v>12.25497982267642</v>
       </c>
       <c r="F25">
-        <v>42.22822509096034</v>
+        <v>56.37555243518763</v>
       </c>
       <c r="G25">
-        <v>2.116156286491835</v>
+        <v>3.792047662006469</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.10233319591437</v>
+        <v>43.00229485315689</v>
       </c>
       <c r="J25">
-        <v>6.392202643488562</v>
+        <v>11.18906722230059</v>
       </c>
       <c r="K25">
-        <v>27.37253514298832</v>
+        <v>28.01583273863062</v>
       </c>
       <c r="L25">
-        <v>5.965103329772438</v>
+        <v>10.54176821728009</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.19056280332838</v>
+        <v>21.21262893010058</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_184/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.545057605471523</v>
+        <v>4.413900582660125</v>
       </c>
       <c r="D2">
-        <v>4.661537461599443</v>
+        <v>2.571595682501575</v>
       </c>
       <c r="E2">
-        <v>12.26468098392145</v>
+        <v>7.400594623715892</v>
       </c>
       <c r="F2">
-        <v>56.38140612707684</v>
+        <v>40.69422640701124</v>
       </c>
       <c r="G2">
-        <v>3.797787779480617</v>
+        <v>2.132959917355692</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>43.04087415747635</v>
+        <v>30.1245505039154</v>
       </c>
       <c r="J2">
-        <v>11.22231888176117</v>
+        <v>6.398344586046814</v>
       </c>
       <c r="K2">
-        <v>27.64467548261242</v>
+        <v>25.36705377341856</v>
       </c>
       <c r="L2">
-        <v>10.56920454279153</v>
+        <v>5.961311175713448</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.32664787442998</v>
+        <v>13.64674568208506</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.5267545040153</v>
+        <v>4.235215324985003</v>
       </c>
       <c r="D3">
-        <v>4.651014653266074</v>
+        <v>2.482496174758543</v>
       </c>
       <c r="E3">
-        <v>12.27464296581825</v>
+        <v>7.282665878221514</v>
       </c>
       <c r="F3">
-        <v>56.41359703053492</v>
+        <v>39.72583990436051</v>
       </c>
       <c r="G3">
-        <v>3.801942545423381</v>
+        <v>2.144622543664712</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>43.08750460884202</v>
+        <v>29.51821517269282</v>
       </c>
       <c r="J3">
-        <v>11.24756180758913</v>
+        <v>6.409187216600754</v>
       </c>
       <c r="K3">
-        <v>27.40371910342969</v>
+        <v>23.95781470276649</v>
       </c>
       <c r="L3">
-        <v>10.59012472440471</v>
+        <v>5.964050871477671</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.40816327839199</v>
+        <v>13.95889075525673</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.516341489421612</v>
+        <v>4.123381514201661</v>
       </c>
       <c r="D4">
-        <v>4.644726800730176</v>
+        <v>2.426690494891141</v>
       </c>
       <c r="E4">
-        <v>12.28243321283558</v>
+        <v>7.21314182150252</v>
       </c>
       <c r="F4">
-        <v>56.44721778523787</v>
+        <v>39.16532958145192</v>
       </c>
       <c r="G4">
-        <v>3.804625043249062</v>
+        <v>2.15194089517051</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>43.12618634493339</v>
+        <v>29.17250452837024</v>
       </c>
       <c r="J4">
-        <v>11.26439841427812</v>
+        <v>6.418951520100801</v>
       </c>
       <c r="K4">
-        <v>27.26136178966464</v>
+        <v>23.06922814528651</v>
       </c>
       <c r="L4">
-        <v>10.60411964272775</v>
+        <v>5.968232965341347</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.46032328296774</v>
+        <v>14.15262873415861</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.512308328545109</v>
+        <v>4.077329911818748</v>
       </c>
       <c r="D5">
-        <v>4.642209016122701</v>
+        <v>2.403689993617107</v>
       </c>
       <c r="E5">
-        <v>12.28602904537922</v>
+        <v>7.185539325246951</v>
       </c>
       <c r="F5">
-        <v>56.4643918581226</v>
+        <v>38.94533883287949</v>
       </c>
       <c r="G5">
-        <v>3.805751367955448</v>
+        <v>2.154965734801884</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>43.14446828694417</v>
+        <v>29.03813253009215</v>
       </c>
       <c r="J5">
-        <v>11.27159599162501</v>
+        <v>6.423685727782827</v>
       </c>
       <c r="K5">
-        <v>27.20481044794085</v>
+        <v>22.70156609241207</v>
       </c>
       <c r="L5">
-        <v>10.61011217301629</v>
+        <v>5.970549250329065</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.48211147090877</v>
+        <v>14.23218314133204</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.511651399212753</v>
+        <v>4.069655941505212</v>
       </c>
       <c r="D6">
-        <v>4.641793660959926</v>
+        <v>2.399855682449204</v>
       </c>
       <c r="E6">
-        <v>12.28665158346781</v>
+        <v>7.181000099811766</v>
       </c>
       <c r="F6">
-        <v>56.46745303552255</v>
+        <v>38.90931368559426</v>
       </c>
       <c r="G6">
-        <v>3.805940401418025</v>
+        <v>2.155470659241889</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>43.14765585519477</v>
+        <v>29.0162079336647</v>
       </c>
       <c r="J6">
-        <v>11.27281147600191</v>
+        <v>6.424516717055763</v>
       </c>
       <c r="K6">
-        <v>27.19550988417102</v>
+        <v>22.64019117682691</v>
       </c>
       <c r="L6">
-        <v>10.61112472268948</v>
+        <v>5.970970365461867</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.48576161233748</v>
+        <v>14.24543187239545</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.516286242090123</v>
+        <v>4.122762304970203</v>
       </c>
       <c r="D7">
-        <v>4.644692663207821</v>
+        <v>2.426381326822808</v>
       </c>
       <c r="E7">
-        <v>12.28248000139093</v>
+        <v>7.212766607344332</v>
       </c>
       <c r="F7">
-        <v>56.44743535304995</v>
+        <v>39.16232881164339</v>
       </c>
       <c r="G7">
-        <v>3.804640098723071</v>
+        <v>2.151981513181096</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>43.12642271505108</v>
+        <v>29.17066622805258</v>
       </c>
       <c r="J7">
-        <v>11.26449412045022</v>
+        <v>6.41901234292218</v>
       </c>
       <c r="K7">
-        <v>27.26059313548969</v>
+        <v>23.06429175366172</v>
       </c>
       <c r="L7">
-        <v>10.60419928750616</v>
+        <v>5.968261746678491</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.46061496694973</v>
+        <v>14.15369908139038</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.538577117988623</v>
+        <v>4.352760295740902</v>
       </c>
       <c r="D8">
-        <v>4.657873862835729</v>
+        <v>2.541111154615323</v>
       </c>
       <c r="E8">
-        <v>12.26776879819972</v>
+        <v>7.359336177889002</v>
       </c>
       <c r="F8">
-        <v>56.38962389654733</v>
+        <v>40.35316437929842</v>
       </c>
       <c r="G8">
-        <v>3.799193137592886</v>
+        <v>2.136950370919687</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>43.05486154797011</v>
+        <v>29.90986430511258</v>
       </c>
       <c r="J8">
-        <v>11.23074521801831</v>
+        <v>6.401422093766801</v>
       </c>
       <c r="K8">
-        <v>27.56046690842269</v>
+        <v>24.88614174369085</v>
       </c>
       <c r="L8">
-        <v>10.57617938242119</v>
+        <v>5.961726708050628</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.35431793965384</v>
+        <v>13.75399297014103</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.588710760320669</v>
+        <v>4.784986291467005</v>
       </c>
       <c r="D9">
-        <v>4.685051976545656</v>
+        <v>2.756834286272377</v>
       </c>
       <c r="E9">
-        <v>12.25217924736337</v>
+        <v>7.669542853039095</v>
       </c>
       <c r="F9">
-        <v>56.38660427187746</v>
+        <v>42.96573380545355</v>
       </c>
       <c r="G9">
-        <v>3.789548780642032</v>
+        <v>2.108575928632335</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>42.99461835962765</v>
+        <v>31.57825440132322</v>
       </c>
       <c r="J9">
-        <v>11.17516472946253</v>
+        <v>6.39284367649921</v>
       </c>
       <c r="K9">
-        <v>28.19035608272177</v>
+        <v>28.26492066555215</v>
       </c>
       <c r="L9">
-        <v>10.53034057260008</v>
+        <v>5.969545630725983</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.1625040146238</v>
+        <v>12.98259572181994</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.629281381168896</v>
+        <v>5.089052404252588</v>
       </c>
       <c r="D10">
-        <v>4.70577122035801</v>
+        <v>2.909249354635039</v>
       </c>
       <c r="E10">
-        <v>12.2487798112409</v>
+        <v>7.911375269528492</v>
       </c>
       <c r="F10">
-        <v>56.45212135739484</v>
+        <v>45.06539138398373</v>
       </c>
       <c r="G10">
-        <v>3.783087043169787</v>
+        <v>2.088169955518962</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.99959664411205</v>
+        <v>32.94908470236668</v>
       </c>
       <c r="J10">
-        <v>11.1407788182739</v>
+        <v>6.40425170972973</v>
       </c>
       <c r="K10">
-        <v>28.67510892826655</v>
+        <v>30.62320802569162</v>
       </c>
       <c r="L10">
-        <v>10.50219480073777</v>
+        <v>5.989070595666146</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.03157426326242</v>
+        <v>12.41706900281422</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.648508899056186</v>
+        <v>5.224194550370441</v>
       </c>
       <c r="D11">
-        <v>4.715347262762391</v>
+        <v>2.977267681894944</v>
       </c>
       <c r="E11">
-        <v>12.24897457961468</v>
+        <v>8.024490078133136</v>
       </c>
       <c r="F11">
-        <v>56.4966968962224</v>
+        <v>46.06290099427265</v>
       </c>
       <c r="G11">
-        <v>3.780281149543867</v>
+        <v>2.078922884287201</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>43.01262125891291</v>
+        <v>33.60716900498492</v>
       </c>
       <c r="J11">
-        <v>11.12653332010594</v>
+        <v>6.413761071739678</v>
       </c>
       <c r="K11">
-        <v>28.89962129392635</v>
+        <v>31.66947680542649</v>
       </c>
       <c r="L11">
-        <v>10.49058742920866</v>
+        <v>6.001241424556886</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.97415027230877</v>
+        <v>12.15842982750024</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.655897163141986</v>
+        <v>5.274901932290077</v>
       </c>
       <c r="D12">
-        <v>4.718994002534502</v>
+        <v>3.002841574120054</v>
       </c>
       <c r="E12">
-        <v>12.24929789852083</v>
+        <v>8.067782307515738</v>
       </c>
       <c r="F12">
-        <v>56.51570226169178</v>
+        <v>46.44706839448668</v>
       </c>
       <c r="G12">
-        <v>3.779237703264413</v>
+        <v>2.075420647903469</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>43.01910423468225</v>
+        <v>33.86162106696886</v>
       </c>
       <c r="J12">
-        <v>11.12133957041184</v>
+        <v>6.418027616014069</v>
       </c>
       <c r="K12">
-        <v>28.98514542779465</v>
+        <v>32.0668199553947</v>
       </c>
       <c r="L12">
-        <v>10.48636369522084</v>
+        <v>6.006350777685187</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.95271018531318</v>
+        <v>12.06013552743589</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.654301260705835</v>
+        <v>5.264002087812643</v>
       </c>
       <c r="D13">
-        <v>4.718207719009524</v>
+        <v>2.997341770876511</v>
       </c>
       <c r="E13">
-        <v>12.24921718047813</v>
+        <v>8.058437920495928</v>
       </c>
       <c r="F13">
-        <v>56.51151457830193</v>
+        <v>46.36403864321403</v>
       </c>
       <c r="G13">
-        <v>3.779461581266573</v>
+        <v>2.07617504192183</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>43.01763899113843</v>
+        <v>33.80658154695912</v>
       </c>
       <c r="J13">
-        <v>11.1224492130343</v>
+        <v>6.417078378941269</v>
       </c>
       <c r="K13">
-        <v>28.96670485677181</v>
+        <v>31.97761387326019</v>
       </c>
       <c r="L13">
-        <v>10.48726571912368</v>
+        <v>6.005227653524071</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.95731415437044</v>
+        <v>12.08132336373262</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.649114609071037</v>
+        <v>5.228375688940834</v>
       </c>
       <c r="D14">
-        <v>4.71564687817014</v>
+        <v>2.97937527841528</v>
       </c>
       <c r="E14">
-        <v>12.24899618259327</v>
+        <v>8.028042484545526</v>
       </c>
       <c r="F14">
-        <v>56.49821787803668</v>
+        <v>46.09437550872619</v>
       </c>
       <c r="G14">
-        <v>3.780194922815002</v>
+        <v>2.078634800132459</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>43.01312351974551</v>
+        <v>33.62799585216658</v>
       </c>
       <c r="J14">
-        <v>11.12610200549948</v>
+        <v>6.414098472428231</v>
       </c>
       <c r="K14">
-        <v>28.90664766479684</v>
+        <v>31.70184177246599</v>
       </c>
       <c r="L14">
-        <v>10.49023650014611</v>
+        <v>6.001651573810917</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.97238028022518</v>
+        <v>12.15035113704322</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.645951484921911</v>
+        <v>5.206492363889363</v>
       </c>
       <c r="D15">
-        <v>4.714080923796233</v>
+        <v>2.968346700729402</v>
       </c>
       <c r="E15">
-        <v>12.24889328996853</v>
+        <v>8.009484518909971</v>
       </c>
       <c r="F15">
-        <v>56.49035008754743</v>
+        <v>45.93004827718416</v>
       </c>
       <c r="G15">
-        <v>3.780646597400739</v>
+        <v>2.080141215964514</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.01055971444286</v>
+        <v>33.51930020354256</v>
       </c>
       <c r="J15">
-        <v>11.12836558043701</v>
+        <v>6.412361269227729</v>
       </c>
       <c r="K15">
-        <v>28.86992478132112</v>
+        <v>31.53244796202409</v>
       </c>
       <c r="L15">
-        <v>10.49207854418213</v>
+        <v>5.999527176003748</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.98164839196829</v>
+        <v>12.19258168834729</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.628040028874557</v>
+        <v>5.080155453878924</v>
       </c>
       <c r="D16">
-        <v>4.70514833662234</v>
+        <v>2.904778112960613</v>
       </c>
       <c r="E16">
-        <v>12.24880205199074</v>
+        <v>7.904046275439638</v>
       </c>
       <c r="F16">
-        <v>56.44950565035153</v>
+        <v>45.00108145213095</v>
       </c>
       <c r="G16">
-        <v>3.78327309231216</v>
+        <v>2.088774521528927</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.99896230352518</v>
+        <v>32.90679494994244</v>
       </c>
       <c r="J16">
-        <v>11.1417378898964</v>
+        <v>6.40372086017927</v>
       </c>
       <c r="K16">
-        <v>28.66051108582832</v>
+        <v>30.55430703414103</v>
       </c>
       <c r="L16">
-        <v>10.50297741655641</v>
+        <v>5.988343674015721</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.03536986974604</v>
+        <v>12.43393114283795</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.617246959747231</v>
+        <v>5.001827206454391</v>
       </c>
       <c r="D17">
-        <v>4.699706261477708</v>
+        <v>2.865446432941864</v>
       </c>
       <c r="E17">
-        <v>12.24919148675711</v>
+        <v>7.84016480303195</v>
       </c>
       <c r="F17">
-        <v>56.42823390084467</v>
+        <v>44.4422574981013</v>
       </c>
       <c r="G17">
-        <v>3.784918487109465</v>
+        <v>2.094076096675025</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>42.99460644736818</v>
+        <v>32.54006635758616</v>
       </c>
       <c r="J17">
-        <v>11.15029902174716</v>
+        <v>6.399556745183872</v>
       </c>
       <c r="K17">
-        <v>28.53301748587471</v>
+        <v>29.94751956919761</v>
       </c>
       <c r="L17">
-        <v>10.50996970644736</v>
+        <v>5.982344018894689</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.06887199109862</v>
+        <v>12.58153401446571</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.611111944421884</v>
+        <v>4.956475763282682</v>
       </c>
       <c r="D18">
-        <v>4.696590384817748</v>
+        <v>2.842699340485587</v>
       </c>
       <c r="E18">
-        <v>12.24957942254662</v>
+        <v>7.8037130001396</v>
       </c>
       <c r="F18">
-        <v>56.41738935330321</v>
+        <v>44.12479958059797</v>
       </c>
       <c r="G18">
-        <v>3.785877455569716</v>
+        <v>2.097129167054792</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>42.99311371114995</v>
+        <v>32.33235971920968</v>
       </c>
       <c r="J18">
-        <v>11.15535464314879</v>
+        <v>6.397565336022117</v>
       </c>
       <c r="K18">
-        <v>28.46006678894306</v>
+        <v>29.59600227204542</v>
       </c>
       <c r="L18">
-        <v>10.51410410425916</v>
+        <v>5.979200921354064</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.08834275901077</v>
+        <v>12.66631193620998</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.609047361952558</v>
+        <v>4.941069641397389</v>
       </c>
       <c r="D19">
-        <v>4.695537887556177</v>
+        <v>2.834976075045368</v>
       </c>
       <c r="E19">
-        <v>12.24973895181621</v>
+        <v>7.791420789044963</v>
       </c>
       <c r="F19">
-        <v>56.41395630172462</v>
+        <v>44.01798537660328</v>
       </c>
       <c r="G19">
-        <v>3.786204310386546</v>
+        <v>2.098163688954979</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>42.99278209046239</v>
+        <v>32.26257986748803</v>
       </c>
       <c r="J19">
-        <v>11.1570889769094</v>
+        <v>6.396959136261024</v>
       </c>
       <c r="K19">
-        <v>28.43543432124271</v>
+        <v>29.476551038804</v>
       </c>
       <c r="L19">
-        <v>10.51552329154645</v>
+        <v>5.978188785130692</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.09496985285705</v>
+        <v>12.69500019234072</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.618388385154654</v>
+        <v>5.010196444169183</v>
       </c>
       <c r="D20">
-        <v>4.700284112197688</v>
+        <v>2.869646220785362</v>
       </c>
       <c r="E20">
-        <v>12.24913306890962</v>
+        <v>7.846934898569681</v>
       </c>
       <c r="F20">
-        <v>56.43035439702592</v>
+        <v>44.50133292581479</v>
       </c>
       <c r="G20">
-        <v>3.784742030852306</v>
+        <v>2.09351138630109</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>42.99496530222659</v>
+        <v>32.57876943261019</v>
       </c>
       <c r="J20">
-        <v>11.14937406756643</v>
+        <v>6.399957936831539</v>
       </c>
       <c r="K20">
-        <v>28.54655053705429</v>
+        <v>30.01237216059193</v>
       </c>
       <c r="L20">
-        <v>10.50921371191489</v>
+        <v>5.982950651556362</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.06528482145444</v>
+        <v>12.5658348488307</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.650635174980736</v>
+        <v>5.238852772135613</v>
       </c>
       <c r="D21">
-        <v>4.716398512276389</v>
+        <v>2.984657368771644</v>
       </c>
       <c r="E21">
-        <v>12.24905432885424</v>
+        <v>8.03695780240823</v>
       </c>
       <c r="F21">
-        <v>56.50206575183181</v>
+        <v>46.17340439746489</v>
       </c>
       <c r="G21">
-        <v>3.779979005660417</v>
+        <v>2.077912374414682</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.0144077110436</v>
+        <v>33.68030572856271</v>
       </c>
       <c r="J21">
-        <v>11.12502364575583</v>
+        <v>6.414955302062282</v>
       </c>
       <c r="K21">
-        <v>28.92427472780086</v>
+        <v>31.7829414704919</v>
       </c>
       <c r="L21">
-        <v>10.48935925154428</v>
+        <v>6.002688135781218</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.96794672945042</v>
+        <v>12.13008693133466</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.672333453181321</v>
+        <v>5.385565985825027</v>
       </c>
       <c r="D22">
-        <v>4.727049141221304</v>
+        <v>3.058762923768991</v>
       </c>
       <c r="E22">
-        <v>12.25045708072568</v>
+        <v>8.163829312174702</v>
       </c>
       <c r="F22">
-        <v>56.56132203770859</v>
+        <v>47.30391614436634</v>
       </c>
       <c r="G22">
-        <v>3.776977276390304</v>
+        <v>2.067710945370104</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>43.03615476758986</v>
+        <v>34.43100135663212</v>
       </c>
       <c r="J22">
-        <v>11.11027906713302</v>
+        <v>6.428660627503039</v>
       </c>
       <c r="K22">
-        <v>29.17405775195246</v>
+        <v>33.01736351088487</v>
       </c>
       <c r="L22">
-        <v>10.47738402325813</v>
+        <v>6.01852030259148</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.90610822575601</v>
+        <v>11.84315409754273</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.660696928044923</v>
+        <v>5.307513269364314</v>
       </c>
       <c r="D23">
-        <v>4.721354209619622</v>
+        <v>3.019305025073146</v>
       </c>
       <c r="E23">
-        <v>12.24957563680823</v>
+        <v>8.095864698964704</v>
       </c>
       <c r="F23">
-        <v>56.52856229711912</v>
+        <v>46.69695354098599</v>
       </c>
       <c r="G23">
-        <v>3.778569223523826</v>
+        <v>2.07315833962843</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>43.02371987822331</v>
+        <v>34.02741349062768</v>
       </c>
       <c r="J23">
-        <v>11.11804153625184</v>
+        <v>6.420972657864925</v>
       </c>
       <c r="K23">
-        <v>29.04049950481738</v>
+        <v>32.34733955470281</v>
       </c>
       <c r="L23">
-        <v>10.48368395273157</v>
+        <v>6.009792094698377</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.93895064780285</v>
+        <v>11.99654867736839</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.617872128211727</v>
+        <v>5.006413706001299</v>
       </c>
       <c r="D24">
-        <v>4.700022825789522</v>
+        <v>2.867747916910012</v>
       </c>
       <c r="E24">
-        <v>12.24915896859553</v>
+        <v>7.843873284141818</v>
       </c>
       <c r="F24">
-        <v>56.42939140729165</v>
+        <v>44.4746130590456</v>
       </c>
       <c r="G24">
-        <v>3.784821766196068</v>
+        <v>2.093766675479994</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>42.99479991362097</v>
+        <v>32.56126204274188</v>
       </c>
       <c r="J24">
-        <v>11.14979182285491</v>
+        <v>6.399775307384989</v>
       </c>
       <c r="K24">
-        <v>28.54043115838077</v>
+        <v>29.98306061993064</v>
       </c>
       <c r="L24">
-        <v>10.50955514057408</v>
+        <v>5.982675441282384</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.06690592673712</v>
+        <v>12.57293268227468</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.574478533751543</v>
+        <v>4.670311804438841</v>
       </c>
       <c r="D25">
-        <v>4.677563256917405</v>
+        <v>2.699527217280758</v>
       </c>
       <c r="E25">
-        <v>12.25497982267642</v>
+        <v>7.583190239765212</v>
       </c>
       <c r="F25">
-        <v>56.37555243518763</v>
+        <v>42.22822509096044</v>
       </c>
       <c r="G25">
-        <v>3.792047662006469</v>
+        <v>2.116156286491965</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>43.00229485315689</v>
+        <v>31.1023331959145</v>
       </c>
       <c r="J25">
-        <v>11.18906722230059</v>
+        <v>6.392202643488611</v>
       </c>
       <c r="K25">
-        <v>28.01583273863062</v>
+        <v>27.37253514298831</v>
       </c>
       <c r="L25">
-        <v>10.54176821728009</v>
+        <v>5.96510332977248</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.21262893010058</v>
+        <v>13.19056280332852</v>
       </c>
       <c r="O25">
         <v>0</v>
